--- a/results/mp/logistic/corona/confidence/42/0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.1/avg_0.004_scores.xlsx
@@ -73,67 +73,67 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>share</t>
@@ -508,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7636986301369864</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4285714285714285</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3294573643410852</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -766,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8207547169811321</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,13 +842,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -868,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -894,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -920,13 +920,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -946,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7708333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7625</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -998,13 +998,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1024,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1050,13 +1050,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1102,13 +1102,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7375</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L19">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1128,13 +1128,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1154,13 +1154,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6511627906976745</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1180,13 +1180,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1206,13 +1206,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1232,13 +1232,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1258,13 +1258,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5774058577405857</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L25">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M25">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1284,13 +1284,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1310,13 +1310,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5559322033898305</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1336,13 +1336,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5425531914893617</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1362,13 +1362,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1388,13 +1388,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4382022471910113</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
